--- a/MVP.xlsx
+++ b/MVP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Names</t>
   </si>
@@ -22,9 +22,6 @@
     <t xml:space="preserve">Last night K/D </t>
   </si>
   <si>
-    <t>20 games total K/D</t>
-  </si>
-  <si>
     <t xml:space="preserve">20 games K/D </t>
   </si>
   <si>
@@ -65,12 +62,6 @@
   </si>
   <si>
     <t>Fro5tShark</t>
-  </si>
-  <si>
-    <t>UBERmatto</t>
-  </si>
-  <si>
-    <t>r3dFlash</t>
   </si>
 </sst>
 </file>
@@ -413,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,18 +414,18 @@
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -451,296 +442,187 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1.86</v>
+      </c>
+      <c r="C2">
+        <v>2.274</v>
+      </c>
+      <c r="E2">
+        <v>1.69</v>
+      </c>
+      <c r="F2">
+        <v>1.6</v>
+      </c>
+      <c r="G2">
+        <v>2.33</v>
+      </c>
+      <c r="H2">
+        <v>2.57</v>
+      </c>
+      <c r="I2">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1.552</v>
-      </c>
-      <c r="C2">
-        <v>42.29</v>
-      </c>
-      <c r="D2">
-        <v>2.115</v>
-      </c>
-      <c r="E2">
-        <v>1.25</v>
-      </c>
-      <c r="F2">
-        <v>1.78</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1.55</v>
-      </c>
-      <c r="I2">
-        <v>1.33</v>
-      </c>
-      <c r="J2">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
       <c r="B3">
-        <v>1.037</v>
+        <v>1.032</v>
       </c>
       <c r="C3">
-        <v>21.27</v>
-      </c>
-      <c r="D3">
-        <v>1.064</v>
+        <v>0.944</v>
       </c>
       <c r="E3">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="F3">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1.142</v>
+      </c>
+      <c r="C4">
+        <v>1.034</v>
+      </c>
+      <c r="E4">
+        <v>1.63</v>
+      </c>
+      <c r="F4">
+        <v>0.76</v>
+      </c>
+      <c r="G4">
+        <v>1.14</v>
+      </c>
+      <c r="H4">
+        <v>1.18</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0.907</v>
-      </c>
-      <c r="C4">
-        <v>20.52</v>
-      </c>
-      <c r="D4">
-        <v>1.026</v>
-      </c>
-      <c r="E4">
-        <v>1.21</v>
-      </c>
-      <c r="F4">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1.3</v>
-      </c>
-      <c r="I4">
-        <v>0.72</v>
-      </c>
-      <c r="J4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1.38</v>
+      </c>
+      <c r="C5">
+        <v>1.188</v>
+      </c>
+      <c r="E5">
+        <v>1.06</v>
+      </c>
+      <c r="F5">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G5">
+        <v>1.9</v>
+      </c>
+      <c r="H5">
+        <v>0.88</v>
+      </c>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0.945</v>
-      </c>
-      <c r="C5">
-        <v>23.03</v>
-      </c>
-      <c r="D5">
-        <v>1.151</v>
-      </c>
-      <c r="E5">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F5">
-        <v>1.2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1.14</v>
-      </c>
-      <c r="I5">
-        <v>1.14</v>
-      </c>
-      <c r="J5">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0.974</v>
+      </c>
+      <c r="C6">
+        <v>1.31</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>2.29</v>
+      </c>
+      <c r="G6">
+        <v>0.58</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>1.045</v>
-      </c>
-      <c r="C6">
-        <v>28.04</v>
-      </c>
-      <c r="D6">
-        <v>1.402</v>
-      </c>
-      <c r="E6">
-        <v>1.44</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1.08</v>
-      </c>
-      <c r="I6">
-        <v>1.67</v>
-      </c>
-      <c r="J6">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>0.676</v>
+      </c>
+      <c r="C7">
+        <v>0.612</v>
+      </c>
+      <c r="E7">
+        <v>0.41</v>
+      </c>
+      <c r="F7">
+        <v>0.64</v>
+      </c>
+      <c r="G7">
+        <v>0.89</v>
+      </c>
+      <c r="H7">
+        <v>1.11</v>
+      </c>
+      <c r="I7">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>0.54</v>
-      </c>
-      <c r="C7">
-        <v>11.79</v>
-      </c>
-      <c r="D7">
-        <v>0.59</v>
-      </c>
-      <c r="E7">
-        <v>0.72</v>
-      </c>
-      <c r="F7">
-        <v>0.9</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0.45</v>
-      </c>
-      <c r="I7">
-        <v>0.77</v>
-      </c>
-      <c r="J7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
       <c r="B8">
-        <v>1.18</v>
+        <v>0.962</v>
       </c>
       <c r="C8">
-        <v>21.47</v>
-      </c>
-      <c r="D8">
-        <v>1.073</v>
+        <v>1.083</v>
       </c>
       <c r="E8">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
       <c r="F8">
-        <v>1.29</v>
+        <v>0.8</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="H8">
-        <v>0.54</v>
+        <v>1.8</v>
       </c>
       <c r="I8">
-        <v>1.33</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0.402</v>
-      </c>
-      <c r="C9">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="D9">
-        <v>0.49</v>
-      </c>
-      <c r="E9">
-        <v>0.28</v>
-      </c>
-      <c r="F9">
-        <v>0.78</v>
-      </c>
-      <c r="G9">
-        <v>0.21</v>
-      </c>
-      <c r="H9">
-        <v>0.38</v>
-      </c>
-      <c r="I9">
-        <v>0.4</v>
-      </c>
-      <c r="J9">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>0.253</v>
-      </c>
-      <c r="C10">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.407</v>
-      </c>
-      <c r="E10">
-        <v>0.62</v>
-      </c>
-      <c r="F10">
-        <v>0.12</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0.17</v>
-      </c>
-      <c r="I10">
-        <v>0.36</v>
-      </c>
-      <c r="J10">
-        <v>0.25</v>
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/MVP.xlsx
+++ b/MVP.xlsx
@@ -8,76 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last night K/D </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 games K/D </t>
-  </si>
-  <si>
-    <t>Round 6</t>
-  </si>
-  <si>
-    <t>Round 5</t>
-  </si>
-  <si>
-    <t>Round 4</t>
-  </si>
-  <si>
-    <t>Round 3</t>
-  </si>
-  <si>
-    <t>Round 2</t>
-  </si>
-  <si>
-    <t>Round 1</t>
-  </si>
-  <si>
-    <t>budbudhardy</t>
-  </si>
-  <si>
-    <t>flaresman</t>
-  </si>
-  <si>
-    <t>sashwank</t>
-  </si>
-  <si>
-    <t>Dead1n5ide</t>
-  </si>
-  <si>
-    <t>ManChivster</t>
-  </si>
-  <si>
-    <t>RustlingSpore</t>
-  </si>
-  <si>
-    <t>Fro5tShark</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,11 +48,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,228 +344,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1.86</v>
-      </c>
-      <c r="C2">
-        <v>2.274</v>
-      </c>
-      <c r="E2">
-        <v>1.69</v>
-      </c>
-      <c r="F2">
-        <v>1.6</v>
-      </c>
-      <c r="G2">
-        <v>2.33</v>
-      </c>
-      <c r="H2">
-        <v>2.57</v>
-      </c>
-      <c r="I2">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>1.032</v>
-      </c>
-      <c r="C3">
-        <v>0.944</v>
-      </c>
-      <c r="E3">
-        <v>1.13</v>
-      </c>
-      <c r="F3">
-        <v>1.57</v>
-      </c>
-      <c r="G3">
-        <v>0.9</v>
-      </c>
-      <c r="H3">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>1.142</v>
-      </c>
-      <c r="C4">
-        <v>1.034</v>
-      </c>
-      <c r="E4">
-        <v>1.63</v>
-      </c>
-      <c r="F4">
-        <v>0.76</v>
-      </c>
-      <c r="G4">
-        <v>1.14</v>
-      </c>
-      <c r="H4">
-        <v>1.18</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>1.38</v>
-      </c>
-      <c r="C5">
-        <v>1.188</v>
-      </c>
-      <c r="E5">
-        <v>1.06</v>
-      </c>
-      <c r="F5">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G5">
-        <v>1.9</v>
-      </c>
-      <c r="H5">
-        <v>0.88</v>
-      </c>
-      <c r="I5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>0.974</v>
-      </c>
-      <c r="C6">
-        <v>1.31</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>2.29</v>
-      </c>
-      <c r="G6">
-        <v>0.58</v>
-      </c>
-      <c r="H6">
-        <v>0.5</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>0.676</v>
-      </c>
-      <c r="C7">
-        <v>0.612</v>
-      </c>
-      <c r="E7">
-        <v>0.41</v>
-      </c>
-      <c r="F7">
-        <v>0.64</v>
-      </c>
-      <c r="G7">
-        <v>0.89</v>
-      </c>
-      <c r="H7">
-        <v>1.11</v>
-      </c>
-      <c r="I7">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>0.962</v>
-      </c>
-      <c r="C8">
-        <v>1.083</v>
-      </c>
-      <c r="E8">
-        <v>0.61</v>
-      </c>
-      <c r="F8">
-        <v>0.8</v>
-      </c>
-      <c r="G8">
-        <v>0.47</v>
-      </c>
-      <c r="H8">
-        <v>1.8</v>
-      </c>
-      <c r="I8">
-        <v>1.13</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>